--- a/yearNames.xlsx
+++ b/yearNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\SchoolProjects\SumerianSocialNetwork\Sumerian-Social-Network-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEFD641-8961-4F95-874E-1E2AAB5988C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5971D-4D76-42FF-A4D3-F8A49D864069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="313">
   <si>
     <t>mu {d}utu-he2-gal2 lugal</t>
   </si>
@@ -88,12 +88,6 @@
     <t>The nin-dingir-priestess of Ishkur was chosen by extispicy</t>
   </si>
   <si>
-    <t>UR-NAMMA</t>
-  </si>
-  <si>
-    <t>UTU-HEGAL</t>
-  </si>
-  <si>
     <t>mu gu-ti-umki ba-hul</t>
   </si>
   <si>
@@ -134,13 +128,844 @@
   </si>
   <si>
     <t>Year after the god Lugal-bagara was brought into the temple</t>
+  </si>
+  <si>
+    <t>mu šul-gi lugal</t>
+  </si>
+  <si>
+    <t>mu us2 e2 dnin-gubalag ki ba-a-gar</t>
+  </si>
+  <si>
+    <t>The foundations of the temple of Ningubalag were laid</t>
+  </si>
+  <si>
+    <t>mu šul-gi lugal uri2ki-ma-ke4 gešgu-za za-gin3 den-lil2-ra i-na-ku4-ra</t>
+  </si>
+  <si>
+    <t>Šulgi, the king of Ur, brought in a lapis throne for Enlil</t>
+  </si>
+  <si>
+    <t>Šulgi is king</t>
+  </si>
+  <si>
+    <t>mu us2 e2-dnin-urta ki ba-a-gar</t>
+  </si>
+  <si>
+    <t>The foundations of the temple of Ninurta were established</t>
+  </si>
+  <si>
+    <t>mu us2 e2-dnin-urta us2-sa</t>
+  </si>
+  <si>
+    <t>Year after the foundations of the temple of Ninurta were established</t>
+  </si>
+  <si>
+    <t>mu bad3 gal e2-an-na ba-du3-a</t>
+  </si>
+  <si>
+    <t>The great wall of the Eanna Temple was built</t>
+  </si>
+  <si>
+    <t>mu lugal-e giri3 nibruki si bi2-sa2-a</t>
+  </si>
+  <si>
+    <t>The king straightened out the Nippur road</t>
+  </si>
+  <si>
+    <t>mu lugal-e uri2ki-ta nibruki-še3 šu in-nigin2</t>
+  </si>
+  <si>
+    <t>The king made a round trip between Ur and Nippur (in one day)</t>
+  </si>
+  <si>
+    <t>mu ma2-gur8 dnin-lil2-la2 ba-ab-du8</t>
+  </si>
+  <si>
+    <t>The magur-boat of Ninlil was caulked</t>
+  </si>
+  <si>
+    <t>mu ma2 dnin-lil2-la2-ke4 us2-sa</t>
+  </si>
+  <si>
+    <t>The year after the boat of Ninlil was caulked</t>
+  </si>
+  <si>
+    <t>mu dnanna kar-zi-daki e2-a-ni ku4</t>
+  </si>
+  <si>
+    <t>Nanna of Karzida was brought into his temple</t>
+  </si>
+  <si>
+    <t>mu e2-hur-sag lugal ba-du3</t>
+  </si>
+  <si>
+    <t>The royal mountain-house (the palace) was built</t>
+  </si>
+  <si>
+    <t>mu dištaran bad3-anki derki e2-a-na ba-ku4</t>
+  </si>
+  <si>
+    <t>Ištaran of Der was brought into his temple</t>
+  </si>
+  <si>
+    <t>mu dnu-muš-da ka-zal-luki e2-a-na ba-ku4</t>
+  </si>
+  <si>
+    <t>Nummušda of Kazallu was brought into his temple</t>
+  </si>
+  <si>
+    <t>mu e2-hal-bi lugal ba-du3</t>
+  </si>
+  <si>
+    <t>The royal ice-house was built</t>
+  </si>
+  <si>
+    <t>mu dnanna nibruki e2-a ba-ku4</t>
+  </si>
+  <si>
+    <t>Nanna of Nippur was brought into (his) temple</t>
+  </si>
+  <si>
+    <t>mu en-nir-si2-an-na en-dnanna maš2-e i3-pa3</t>
+  </si>
+  <si>
+    <t>En-nirza-ana, the en-priestess of Nanna, was chosen by extispicy</t>
+  </si>
+  <si>
+    <t>mu gešna2 dnin-lil2-la2 ba-dim2</t>
+  </si>
+  <si>
+    <t>The bed of Ninlil was made</t>
+  </si>
+  <si>
+    <t>mu gešna2 dnin-lil2-la2 us2-sa</t>
+  </si>
+  <si>
+    <t>The year after the bed of Ninlil was made</t>
+  </si>
+  <si>
+    <t>mu en-nir-si2-an-na en-dnanna ba-hun-ga2</t>
+  </si>
+  <si>
+    <t>En-nirzi-ana, the en-priestess of Nanna, was installed</t>
+  </si>
+  <si>
+    <t>mu li2-wir-mi-ta2-šu dumu-munus lugal nam-nin mar-ha-šiki-še3 ba-il2</t>
+  </si>
+  <si>
+    <t>Liwwir-mit,t,ašu, the daughter of the king, was elevated to the queenship of Marhashi</t>
+  </si>
+  <si>
+    <t>mu EZENxKU3ki bad3ki ki-be2 ba-ab-gi4</t>
+  </si>
+  <si>
+    <t>… was restored</t>
+  </si>
+  <si>
+    <t>mu dnin-hur-sag-ga2 nu-tur e2-a-na ba-an-ku4</t>
+  </si>
+  <si>
+    <t>sulgi 20a</t>
+  </si>
+  <si>
+    <t>Ninhursaga of Nutur was brought into her temple</t>
+  </si>
+  <si>
+    <t>sulgi 19</t>
+  </si>
+  <si>
+    <t>sulgi 18</t>
+  </si>
+  <si>
+    <t>sulgi 17b</t>
+  </si>
+  <si>
+    <t>sulgi 17a</t>
+  </si>
+  <si>
+    <t>sulgi 16</t>
+  </si>
+  <si>
+    <t>sulgi 15</t>
+  </si>
+  <si>
+    <t>sulgi 14</t>
+  </si>
+  <si>
+    <t>sulgi 13</t>
+  </si>
+  <si>
+    <t>sulgi 12</t>
+  </si>
+  <si>
+    <t>sulgi 11</t>
+  </si>
+  <si>
+    <t>sulgi 10</t>
+  </si>
+  <si>
+    <t>sulgi 9b</t>
+  </si>
+  <si>
+    <t>sulgi 9a</t>
+  </si>
+  <si>
+    <t>sulgi 8</t>
+  </si>
+  <si>
+    <t>sulgi 7</t>
+  </si>
+  <si>
+    <t>sulgi 6</t>
+  </si>
+  <si>
+    <t>sulgi 5b</t>
+  </si>
+  <si>
+    <t>sugli 5a</t>
+  </si>
+  <si>
+    <t>sulgi 4</t>
+  </si>
+  <si>
+    <t>sulgi 3</t>
+  </si>
+  <si>
+    <t>sulgi 2</t>
+  </si>
+  <si>
+    <t>sulgi 1</t>
+  </si>
+  <si>
+    <t>mu dumu uri2ki-ma lu2 gešgid2-še3 ka ba-ab-keš2</t>
+  </si>
+  <si>
+    <t>The men of Ur were conscripted as lancers</t>
+  </si>
+  <si>
+    <t>sulgi 20b</t>
+  </si>
+  <si>
+    <t>mu dnin-urta ensi2 gal den-lil2-la2-ke4 eš-bar kin ba-an-du11-ga a-ša3 nig2-ka9 den-lil2 dnin-lil2-ra si bi2-in-sa2-sa2-a</t>
+  </si>
+  <si>
+    <t>Ninurta, the ensi-gal of Enlil, having pronounced an oracle, (Šulgi) reorganized the fields and accounts of Enlil and Ninlil</t>
+  </si>
+  <si>
+    <t>sulgi 21a</t>
+  </si>
+  <si>
+    <t>mu dnin-urta ensi2 gal den-lil2-la2-ke4 e2 den-lil2 dnin-lil2-la2-ke4 eš-bar kin ba-an-du11-ga dšul-gi lugal uri5ki-ma-ke4 gan2 nig2-ka9 ša3 e2 den-lil2 dnin-lil2-la2-ke4 si bi2-sa2-a</t>
+  </si>
+  <si>
+    <t>Ninurta, the ensi-gal of Enlil, having pronounced an oracle in the temples of Enlil and Ninlil, Šulgi, the king of Ur, reorganized the fields and accounts belonging to the temples of Enlil and Ninlil</t>
+  </si>
+  <si>
+    <t>sulgi 21b</t>
+  </si>
+  <si>
+    <t>mu BAD3-ANki (= Der) ba-hul</t>
+  </si>
+  <si>
+    <t>Der was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 21c</t>
+  </si>
+  <si>
+    <t>mu nig2-ka9 ak al-la</t>
+  </si>
+  <si>
+    <t>The accounting of the hoes</t>
+  </si>
+  <si>
+    <t>sulgi 21d</t>
+  </si>
+  <si>
+    <t>mu us2-sa dnin-urta ensi2 gal den-lil2-la2-ke4 e2-den-lil2 dnin-lil2-la2-ke4 eš-bar kin ba-an-du11-ga dšul-gi lugal uri2ki-ma-ke4 gan2 nig2-ka9 ša3 e2 den-lil2 dnin-lil2-la2-ke4 si bi2-sa2-a</t>
+  </si>
+  <si>
+    <t>Yea after Ninurta, the ensi-gal of Enlil, having pronounced an oracle in the temples of Enlil and Ninlil, Šulgi, the king of Ur, reorganized the fields and accounts belonging to the temples of Enlil and Ninlil</t>
+  </si>
+  <si>
+    <t>sulgi 22a</t>
+  </si>
+  <si>
+    <t>mu us2-sa bad3-anki derki ba-hul</t>
+  </si>
+  <si>
+    <t>Year after Der was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 22b</t>
+  </si>
+  <si>
+    <t>mu nig2-ka9 ak al-la-ke4 mu us2-sa-bi</t>
+  </si>
+  <si>
+    <t>sulgi 22c</t>
+  </si>
+  <si>
+    <t>Year after the accounting of the hoes</t>
+  </si>
+  <si>
+    <t>mu us2-sa nig2-ka9-ak al-la-ka mu us2-sa-bi</t>
+  </si>
+  <si>
+    <t>Two years after the accounting of the hoes</t>
+  </si>
+  <si>
+    <t>sulgi 23a</t>
+  </si>
+  <si>
+    <t>mu dšul-gi lugal-e a2 mah den-lil2 sum-ma-ni</t>
+  </si>
+  <si>
+    <t>Šulgi, the king, having been granted great power by Enlil,</t>
+  </si>
+  <si>
+    <t>sulgi 23b</t>
+  </si>
+  <si>
+    <t>mu kar2-harki ba-hul</t>
+  </si>
+  <si>
+    <t>Karahar was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 24</t>
+  </si>
+  <si>
+    <t>mu us2-sa kar2-harki ba-hul</t>
+  </si>
+  <si>
+    <t>Year after Karahar was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 25a</t>
+  </si>
+  <si>
+    <t>mu si-mu-ru-umki ba-hul</t>
+  </si>
+  <si>
+    <t>Simurrum was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 25b</t>
+  </si>
+  <si>
+    <t>mu us2-sa si-mu-ru-umki ba-hul</t>
+  </si>
+  <si>
+    <t>Year after Simurrum was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 26a</t>
+  </si>
+  <si>
+    <t>mu si-mu-ru-umki a-ra2 2-kam-ma-aš ba-hul</t>
+  </si>
+  <si>
+    <t>Simurrum was destroyed a second time</t>
+  </si>
+  <si>
+    <t>sulgi 26b</t>
+  </si>
+  <si>
+    <t>mu šul-gi nita kal-ga lugal an ub-da limmu2-ba-ke4 si-mu-ur4-umki a-ra2 2-kam-aš mu-hul-a mu us2-sa-bi</t>
+  </si>
+  <si>
+    <t>Šulgi the strong man, the king of the four corners of the universe, destroyed Simurrum for the second time</t>
+  </si>
+  <si>
+    <t>sulgi 27a</t>
+  </si>
+  <si>
+    <t>mu ha-ar-šiki ba-hul</t>
+  </si>
+  <si>
+    <t>Harszi was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 27b</t>
+  </si>
+  <si>
+    <t>mu en nam-šita4 dšul-gi-ra-ke4 ba-gub-ba-še3 šud3-sag en-den-ki eriduki-ga dumu šul-gi nita kal-ga lugal uri2ki-ma lugal an ub-da limmu2-ba-ke4 ba-a-hun</t>
+  </si>
+  <si>
+    <t>The šita-priest-who-piously-intercedes-for-Šulgi, the son of Šulgi, the strong man, the king of Ur, the king of the four corners of the universe, was installed as en-priest of Enki in Eridu</t>
+  </si>
+  <si>
+    <t>sulgi 28a</t>
+  </si>
+  <si>
+    <t>mu en-nam-šita4 dšul-gi-ra-ke4 ba-gub en-den-ki eriduki-ga dumu dšul-gi nita kal-ga lugal uri2ki-ma lugal an ub-da limmu2-ba-ka ba-a-hun</t>
+  </si>
+  <si>
+    <t>The šita-priest-who-intercedes-for-Šulgi, the son of Šulgi, the strong man, the king of Ur, the king of the four corners of the universe, was installed as en-priest of Enki in Eridu</t>
+  </si>
+  <si>
+    <t>sulgi 28b</t>
+  </si>
+  <si>
+    <t>mu us2-sa en nam-šita4 dšul-gi-ra-ke4 ba-gub-ba-še3 šud3-sag en-den-ki eriduki-ga dumu šul-gi nita kal-ga lugal uri2ki-ma lugal an ub-da limmu2-ba-ke4 ba-a-hun</t>
+  </si>
+  <si>
+    <t>Year after the šita-priest-who-piously-intercedes-for-Šulgi, the son of Šulgi, the strong man, the king of Ur, the king of the four corners of the universe, was installed as en-priest of Enki in Eridu</t>
+  </si>
+  <si>
+    <t>sulgi 29</t>
+  </si>
+  <si>
+    <t>mu dumu-munus lugal ensi2 an-ša-anki-ke4 ba-an-tuku</t>
+  </si>
+  <si>
+    <t>The governor of Anšan took the the king's daughter into marriage</t>
+  </si>
+  <si>
+    <t>sulgi 30a</t>
+  </si>
+  <si>
+    <t>mu dumu-munus lugal ensi2 an-ša-anki-ke4 ba-an-du</t>
+  </si>
+  <si>
+    <t>sulgi 30b</t>
+  </si>
+  <si>
+    <t>mu us2-sa dumu-munus lugal ensi2 an-ša-anki-ke4 ba-an-tuku</t>
+  </si>
+  <si>
+    <t>Year after the governor of Anšan took the the king's daughter into marriage</t>
+  </si>
+  <si>
+    <t>sulgi 31a</t>
+  </si>
+  <si>
+    <t>mu kar2-harki a-ra2 2-kam-aš ba-hul</t>
+  </si>
+  <si>
+    <t>Karhar was destroyed for the second time</t>
+  </si>
+  <si>
+    <t>sulgi 31b</t>
+  </si>
+  <si>
+    <t>mu si-mu-ru-umki a-ra2 3-kam-aš ba-hul</t>
+  </si>
+  <si>
+    <t>Simurrum was destroyed for the third time</t>
+  </si>
+  <si>
+    <t>sulgi 32</t>
+  </si>
+  <si>
+    <t>mu us2-sa si-mu-ru-umki a-ra2 3-kam-aš ba-hul</t>
+  </si>
+  <si>
+    <t>Year after Simurrum was destroyed for the third time</t>
+  </si>
+  <si>
+    <t>sulgi 33a</t>
+  </si>
+  <si>
+    <t>mu kar2-harki a-ra2 3-kam-aš ba-hul</t>
+  </si>
+  <si>
+    <t>Karhar was destroyed for the third time</t>
+  </si>
+  <si>
+    <t>sulgi 33b</t>
+  </si>
+  <si>
+    <t>mu us2-sa kar2-harki a-ra2 3-kam-aš ba-hul</t>
+  </si>
+  <si>
+    <t>Year after Karhar was destroyed for the third time</t>
+  </si>
+  <si>
+    <t>mu us2-sa a-ra2 3-kam-aš si-mu-ru-umki ba-hul mu us2-sa-bi</t>
+  </si>
+  <si>
+    <t>sulgi 34a</t>
+  </si>
+  <si>
+    <t>Second year after Simurrum was destroyed for the third time</t>
+  </si>
+  <si>
+    <t>sulgi 34b</t>
+  </si>
+  <si>
+    <t>mu an-ša-anki ba-hul</t>
+  </si>
+  <si>
+    <t>Anshan was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 34c</t>
+  </si>
+  <si>
+    <t>mu us2-sa an-ša-anki ba-hul</t>
+  </si>
+  <si>
+    <t>Year after Anšan was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 35</t>
+  </si>
+  <si>
+    <t>mu us2-sa an-ša-anki ba-hul mu us2-sa-bi</t>
+  </si>
+  <si>
+    <t>Second year after Anšan was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 36a</t>
+  </si>
+  <si>
+    <t>mu dnanna ga-eški e2-ba-a ba-ku4</t>
+  </si>
+  <si>
+    <t>Nanna of Gaeš was brought into his temple</t>
+  </si>
+  <si>
+    <t>sulgi 36b</t>
+  </si>
+  <si>
+    <t>mu dnanna kar-zi-daki a-ra2 2-kam-aš e2-a-na ba-an-ku4</t>
+  </si>
+  <si>
+    <t>Nanna of Karzida was for the second time brought into his temple (formula used in Drehem)</t>
+  </si>
+  <si>
+    <t>sulgi 36c</t>
+  </si>
+  <si>
+    <t>mu dnanna kar-zi-daki e2-a-na ba-an-ku4</t>
+  </si>
+  <si>
+    <t>Nanna of Karzida was brought into his temple (formula used in Lagaš)</t>
+  </si>
+  <si>
+    <t>sulgi 36d</t>
+  </si>
+  <si>
+    <t>mu dnanna kar-zi-daki a-ra2 2-kam-ma-še3 e2-a-na ba-an-ku4</t>
+  </si>
+  <si>
+    <t>Nanna of Karzida was for the second time brought into his temple (formula used in Nippur)</t>
+  </si>
+  <si>
+    <t>sulgi 36e</t>
+  </si>
+  <si>
+    <t>mu dnanna kar-zi-daki a-ra2 2-kam e2-a-na ba-an-ku4</t>
+  </si>
+  <si>
+    <t>Nanna of Karzida was for the second time brought into his temple (formula used in Umma)</t>
+  </si>
+  <si>
+    <t>sulgi 36f</t>
+  </si>
+  <si>
+    <t>mu dnanna kar-zi-daki e2-nun-na-še3 agrun-na-še3</t>
+  </si>
+  <si>
+    <t>Nanna of Karzida (was brought into the temple) Enunna (in Ur)</t>
+  </si>
+  <si>
+    <t>sulgi 36g</t>
+  </si>
+  <si>
+    <t>mu us2-sa dnanna kar-zi-daki a-ra2 2-kam e2-a-na ba-an-ku4</t>
+  </si>
+  <si>
+    <t>Year after Nanna of Karzida was for the second time brought into his temple</t>
+  </si>
+  <si>
+    <t>sulgi 37a</t>
+  </si>
+  <si>
+    <t>mu dnanna u3 dšul-gi lugal-e bad3 ma-da mu-du3</t>
+  </si>
+  <si>
+    <t>Nanna and Šulgi the king built the wall of the land</t>
+  </si>
+  <si>
+    <t>sulgi 37b</t>
+  </si>
+  <si>
+    <t>mu bad3 ma-da ba-du3</t>
+  </si>
+  <si>
+    <t>The wall of the land was built</t>
+  </si>
+  <si>
+    <t>sulgi 37c</t>
+  </si>
+  <si>
+    <t>mu us2-sa bad3 ma-da ba-du3</t>
+  </si>
+  <si>
+    <t>The year after the wall of the land was built</t>
+  </si>
+  <si>
+    <t>sulgi 38</t>
+  </si>
+  <si>
+    <t>mu us2-sa bad3 ma-da ba-du3 mu us2-sa-bi</t>
+  </si>
+  <si>
+    <t>Second year after the wall of the land was built</t>
+  </si>
+  <si>
+    <t>sulgi 39a</t>
+  </si>
+  <si>
+    <t>mu dšul-gi lugal uri2ki-ma-ke4 lugal an ub-da limmu2-ba-ke4 e2-|PU3.SZA|-iš-dda-ganki e2-dšul-gi-ra mu-du3</t>
+  </si>
+  <si>
+    <t>Šulgi, king of Ur, king of the four quarters, built the temple of Puzriš-Dagan / the temple of Šulgi</t>
+  </si>
+  <si>
+    <t>sulgi 39b</t>
+  </si>
+  <si>
+    <t>mu us2-sa e2-|PU3.SZA|-iš-dda-ganki ba-du3-a</t>
+  </si>
+  <si>
+    <t>Year after the temple of Puzriš-Dagan was built</t>
+  </si>
+  <si>
+    <t>sulgi 40</t>
+  </si>
+  <si>
+    <t>mu us2-sa e2-|PU3.SZA|-iš-dda-ganki ba-du3-a mu us2-sa-a-bi</t>
+  </si>
+  <si>
+    <t>Second year after the temple of Puzriš-Dagan was built</t>
+  </si>
+  <si>
+    <t>sulgi 41</t>
+  </si>
+  <si>
+    <t>mu us2-sa e2-|PU3.SZA|-iš-dda-ganki ba-du3-a mu us2-sa-a-ba mu us2-sa-a-bi</t>
+  </si>
+  <si>
+    <t>Third year after the temple of Puzriš-Dagan was built</t>
+  </si>
+  <si>
+    <t>sulgi 42a</t>
+  </si>
+  <si>
+    <t>mu lugal-e ša-aš-ru-umki mu-hul</t>
+  </si>
+  <si>
+    <t>The king destroyed Šašrum</t>
+  </si>
+  <si>
+    <t>sulgi 42b</t>
+  </si>
+  <si>
+    <t>mu us2-sa ša-aš-ru-umki ba-hul</t>
+  </si>
+  <si>
+    <t>Year after Šašrum was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 43a</t>
+  </si>
+  <si>
+    <t>mu en-ubur-zi-an-na en-dnanna maš-e maš2-e i3-pa3</t>
+  </si>
+  <si>
+    <t>Enuburzianna was chosen as en-priestess of Nanna by means of the omens</t>
+  </si>
+  <si>
+    <t>sulgi 43b</t>
+  </si>
+  <si>
+    <t>mu us2-sa en-dnanna maš-e maš2-e i3-pa3</t>
+  </si>
+  <si>
+    <t>Year after the en-priestess of Nanna was chosen by means of the omens</t>
+  </si>
+  <si>
+    <t>sulgi 44a</t>
+  </si>
+  <si>
+    <t>mu si-mu-ru-umki u3 lu-lu-bu-um/bum2ki a-ra2 1(u) la2 1(asz@45)-kam-aš ba-hul</t>
+  </si>
+  <si>
+    <t>Simurrum and Lullubum were destroyed for the ninth time</t>
+  </si>
+  <si>
+    <t>sulgi 44b</t>
+  </si>
+  <si>
+    <t>mu us2-sa si-mu-ru-umki u3 lu-lu-bu-umki a-ra2 9-kam-aš ba-hul</t>
+  </si>
+  <si>
+    <t>Year after Simurrum and Lullubum were destroyed for the ninth time</t>
+  </si>
+  <si>
+    <t>sulgi 45a</t>
+  </si>
+  <si>
+    <t>mu dšul-gi nita kal-ga lugal uri2ki-ma lugal an ub-da limmu2-ba-ke4 ur-bi2-lumki si-mu-ru-umki lu-lu-buki u3 kar2-harki 1-še3 sag-du-bi šu-bur2-a bi2-ra-a / im-mi-ra</t>
+  </si>
+  <si>
+    <t>Šulgi, the strong man, the king of Ur, the king of the four quarters, smashed the heads of Urbilum, Simurrum, Lullubum and Karhar in a single campaign</t>
+  </si>
+  <si>
+    <t>sulgi 45b</t>
+  </si>
+  <si>
+    <t>mu si-mu-ru-umki lu-lu-buki a-ra2 9-kam ba-hul</t>
+  </si>
+  <si>
+    <t>sulgi 45c</t>
+  </si>
+  <si>
+    <t>mu us2-sa ur-bi2-lumki ba-hul</t>
+  </si>
+  <si>
+    <t>Year after Urbilum was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 46a</t>
+  </si>
+  <si>
+    <t>mu dšul-gi nita kal-ga lugal uri2ki-ma lugal an ub-da limmu2-ba-ke4 ki-maški hu-ur5-tiki u3 ma-da-bi u4 1-a mu-hul</t>
+  </si>
+  <si>
+    <t>Šulgi, the strong man, the king of Ur, the king of the four quarters, destroyed Kimaš, Hurti and their territories in a single day</t>
+  </si>
+  <si>
+    <t>sulgi 46b</t>
+  </si>
+  <si>
+    <t>mu us2-sa ki-maški ba-hul</t>
+  </si>
+  <si>
+    <t>Year after Kimaš was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 47a</t>
+  </si>
+  <si>
+    <t>mu dšul-gi nita kal-ga lugal uri2ki-ma lugal an ub-da limmu2-ba-ke4 ki-maški hu-ur5-tiki u3 ma-da-bi u4 1-a mu-hul-a mu us2-sa-bi</t>
+  </si>
+  <si>
+    <t>Year after Šulgi, the strong man, the king of Ur, the king of the four quarters, destroyed Kimaš, Hurti and their territories in a single day</t>
+  </si>
+  <si>
+    <t>sulgi 47b</t>
+  </si>
+  <si>
+    <t>mu us2-sa ki-maški ba-hul mu us2-sa-a-bi</t>
+  </si>
+  <si>
+    <t>Second year after Kimaš was destroyed</t>
+  </si>
+  <si>
+    <t>sulgi 48a</t>
+  </si>
+  <si>
+    <t>mu ha-ar-šiki ki-maški hu-ur5-tiki u3 ma-da-bi u4 1-bi ba-hul</t>
+  </si>
+  <si>
+    <t>Harshi, Kimaš, Hurti and their territories were destroyed in a single day</t>
+  </si>
+  <si>
+    <t>sulgi 48b</t>
+  </si>
+  <si>
+    <t>mu ki-maški a-ra2 2-kam ba-hul</t>
+  </si>
+  <si>
+    <t>Kimaš was destroyed for the second time</t>
+  </si>
+  <si>
+    <t>sulgi 48c</t>
+  </si>
+  <si>
+    <t>mu 2-kam ha-ar-šiki ba-hul</t>
+  </si>
+  <si>
+    <t>Harši was destroyed for the second time</t>
+  </si>
+  <si>
+    <t>sulgi 48d</t>
+  </si>
+  <si>
+    <t>mu i-bi-dsuen a-na e2 a-bi-šu i-ru-bu-u2</t>
+  </si>
+  <si>
+    <t>Ibbi-Sîn entered the house of his father</t>
+  </si>
+  <si>
+    <t>ibbi-sin 1</t>
+  </si>
+  <si>
+    <t>utu-hegal 1</t>
+  </si>
+  <si>
+    <t>ur-namma 1</t>
+  </si>
+  <si>
+    <t>ur-namma 2</t>
+  </si>
+  <si>
+    <t>ur-namma 3</t>
+  </si>
+  <si>
+    <t>ur-namma 4</t>
+  </si>
+  <si>
+    <t>ur-namma 5</t>
+  </si>
+  <si>
+    <t>ur-namma 6</t>
+  </si>
+  <si>
+    <t>ur-namma 7</t>
+  </si>
+  <si>
+    <t>ur-namma 8</t>
+  </si>
+  <si>
+    <t>ur-namma 9</t>
+  </si>
+  <si>
+    <t>ur-namma 10</t>
+  </si>
+  <si>
+    <t>ur-namma 11</t>
+  </si>
+  <si>
+    <t>ur-namma 12</t>
+  </si>
+  <si>
+    <t>ur-namma 13</t>
+  </si>
+  <si>
+    <t>ur-namma 14</t>
+  </si>
+  <si>
+    <t>ur-namma 15</t>
+  </si>
+  <si>
+    <t>ur-namma 16</t>
+  </si>
+  <si>
+    <t>ur-namma 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +975,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,9 +1007,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,158 +1337,1159 @@
     <col min="2" max="2" width="67.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>233</v>
+      </c>
+      <c r="B85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C89" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>248</v>
+      </c>
+      <c r="B90" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>254</v>
+      </c>
+      <c r="B92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C93" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>263</v>
+      </c>
+      <c r="B95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>268</v>
+      </c>
+      <c r="B97" t="s">
+        <v>269</v>
+      </c>
+      <c r="C97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98" t="s">
+        <v>272</v>
+      </c>
+      <c r="C98" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>274</v>
+      </c>
+      <c r="B99" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>277</v>
+      </c>
+      <c r="B100" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>280</v>
+      </c>
+      <c r="B101" t="s">
+        <v>281</v>
+      </c>
+      <c r="C101" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>283</v>
+      </c>
+      <c r="B102" t="s">
+        <v>284</v>
+      </c>
+      <c r="C102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>286</v>
+      </c>
+      <c r="B103" t="s">
+        <v>287</v>
+      </c>
+      <c r="C103" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>289</v>
+      </c>
+      <c r="B104" t="s">
+        <v>290</v>
+      </c>
+      <c r="C104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>292</v>
+      </c>
+      <c r="B105" t="s">
+        <v>293</v>
+      </c>
+      <c r="C105" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
